--- a/data/trans_orig/Q5405-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q5405-Clase-trans_orig.xlsx
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4573</v>
+        <v>4036</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03017691575788626</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1539307735928429</v>
+        <v>0.1358618278080932</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4596</v>
+        <v>4629</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01001771734713656</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05135325994562431</v>
+        <v>0.05172351513008187</v>
       </c>
     </row>
     <row r="5">
@@ -807,19 +807,19 @@
         <v>2714</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6477</v>
+        <v>6823</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04539551607450407</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01309121764616447</v>
+        <v>0.01312753917830513</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1083401179980339</v>
+        <v>0.1141324601683547</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5110</v>
+        <v>5051</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03019854518092787</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1719986677674109</v>
+        <v>0.1700066445351972</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -849,19 +849,19 @@
         <v>3611</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>933</v>
+        <v>918</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8789</v>
+        <v>9189</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04035063474315985</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01042406295874197</v>
+        <v>0.01025730230508843</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0982120711431874</v>
+        <v>0.1026738972065346</v>
       </c>
     </row>
     <row r="6">
@@ -878,19 +878,19 @@
         <v>57070</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>53307</v>
+        <v>52961</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>59001</v>
+        <v>58999</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9546044839254959</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8916598820019661</v>
+        <v>0.8858675398316453</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9869087823538355</v>
+        <v>0.9868724608216948</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>28</v>
@@ -899,7 +899,7 @@
         <v>27915</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>23331</v>
+        <v>23402</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>29709</v>
@@ -908,7 +908,7 @@
         <v>0.9396245390611858</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7853059667411374</v>
+        <v>0.7877064887090054</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>1</v>
@@ -920,19 +920,19 @@
         <v>84985</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>79732</v>
+        <v>79554</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>87759</v>
+        <v>87799</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9496316479097036</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8909273893392992</v>
+        <v>0.8889452237994885</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.980626199694853</v>
+        <v>0.9810744739810643</v>
       </c>
     </row>
     <row r="7">
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8246</v>
+        <v>8277</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03445050489423308</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.162234090642013</v>
+        <v>0.1628457793072288</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>8895</v>
+        <v>7352</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02628687198892891</v>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1335338163798363</v>
+        <v>0.1103608737714709</v>
       </c>
     </row>
     <row r="9">
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4317</v>
+        <v>4618</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01610677617254181</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08492998340445838</v>
+        <v>0.09085876822101406</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -1124,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>4380</v>
+        <v>3498</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01229000169088415</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06574891234989028</v>
+        <v>0.05251383275777588</v>
       </c>
     </row>
     <row r="10">
@@ -1150,7 +1150,7 @@
         <v>48260</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>41059</v>
+        <v>41631</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>50830</v>
@@ -1159,7 +1159,7 @@
         <v>0.9494427189332251</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.807766550386385</v>
+        <v>0.8190200560740314</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -1184,7 +1184,7 @@
         <v>64046</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>57217</v>
+        <v>57188</v>
       </c>
       <c r="T10" s="5" t="n">
         <v>66616</v>
@@ -1193,7 +1193,7 @@
         <v>0.9614231263201869</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8589124034714614</v>
+        <v>0.8584759987877955</v>
       </c>
       <c r="W10" s="6" t="n">
         <v>1</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4739</v>
+        <v>5885</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01183302108506935</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06603819658310281</v>
+        <v>0.08201154846699163</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5412</v>
+        <v>5430</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04700593135308719</v>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2229529396137269</v>
+        <v>0.2237063266787716</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>6851</v>
+        <v>6882</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02072438699587068</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07134109232637385</v>
+        <v>0.071666319682003</v>
       </c>
     </row>
     <row r="13">
@@ -1359,19 +1359,19 @@
         <v>3542</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>900</v>
+        <v>886</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7599</v>
+        <v>8280</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04936834562703243</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01254568774275076</v>
+        <v>0.01234840629567036</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1059052725819973</v>
+        <v>0.1153929888222811</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -1393,19 +1393,19 @@
         <v>3542</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>944</v>
+        <v>875</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9201</v>
+        <v>8778</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03688851322089837</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009829864656832499</v>
+        <v>0.009108215976015844</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09581127004416401</v>
+        <v>0.09141309466119296</v>
       </c>
     </row>
     <row r="14">
@@ -1422,19 +1422,19 @@
         <v>67363</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>62847</v>
+        <v>61833</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>70088</v>
+        <v>70052</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9387986332878983</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8758674833894942</v>
+        <v>0.8617372223577794</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9767772326467159</v>
+        <v>0.976282646013664</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>23</v>
@@ -1443,7 +1443,7 @@
         <v>23134</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>18863</v>
+        <v>18845</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>24275</v>
@@ -1452,7 +1452,7 @@
         <v>0.9529940686469128</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7770470603862727</v>
+        <v>0.7762936733212286</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1464,19 +1464,19 @@
         <v>90497</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>83814</v>
+        <v>84702</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>93469</v>
+        <v>94227</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.942387099783231</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8727904412433695</v>
+        <v>0.8820385971167536</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9733353629780205</v>
+        <v>0.98122112513236</v>
       </c>
     </row>
     <row r="15">
@@ -1568,19 +1568,19 @@
         <v>3699</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1003</v>
+        <v>868</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9191</v>
+        <v>8718</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01422386512441346</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003857241223861551</v>
+        <v>0.003335911901844953</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03533934769167005</v>
+        <v>0.03352140999157235</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1592,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8162</v>
+        <v>7658</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02530503305875269</v>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09517907339805826</v>
+        <v>0.08930341017741031</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -1610,19 +1610,19 @@
         <v>5869</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2331</v>
+        <v>2408</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12649</v>
+        <v>12765</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01697160088343696</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006740541195074137</v>
+        <v>0.006963075813975313</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03657729373357767</v>
+        <v>0.03691151737793288</v>
       </c>
     </row>
     <row r="17">
@@ -1639,19 +1639,19 @@
         <v>10042</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5432</v>
+        <v>5380</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17505</v>
+        <v>16972</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0386123561837359</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02088533133516197</v>
+        <v>0.02068778769880006</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06730960107304719</v>
+        <v>0.06525762781049987</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1660,19 +1660,19 @@
         <v>3110</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9085</v>
+        <v>8230</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03627285150229364</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01039737277062462</v>
+        <v>0.01029918436806122</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1059498652558805</v>
+        <v>0.09597184902607143</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>14</v>
@@ -1681,19 +1681,19 @@
         <v>13152</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7396</v>
+        <v>7339</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>21964</v>
+        <v>20723</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03803224218224324</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02138752139312407</v>
+        <v>0.02122163824169655</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06351180316796487</v>
+        <v>0.0599236667996202</v>
       </c>
     </row>
     <row r="18">
@@ -1710,19 +1710,19 @@
         <v>246331</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>238153</v>
+        <v>238166</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>251995</v>
+        <v>251905</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9471637786918506</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9157209257987751</v>
+        <v>0.9157694630263088</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9689434451104929</v>
+        <v>0.968595404792529</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>83</v>
@@ -1731,19 +1731,19 @@
         <v>80472</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>73515</v>
+        <v>73850</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>83811</v>
+        <v>83770</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9384221154389537</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8573020996358119</v>
+        <v>0.8612036244160886</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9773639906846822</v>
+        <v>0.9768873993499094</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>345</v>
@@ -1752,19 +1752,19 @@
         <v>326802</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>316700</v>
+        <v>317683</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>333420</v>
+        <v>334278</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9449961569343198</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9157847747671078</v>
+        <v>0.9186251454945376</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9641329530055892</v>
+        <v>0.9666134433587869</v>
       </c>
     </row>
     <row r="19">
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5545</v>
+        <v>4725</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01704092374337918</v>
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09997927346113689</v>
+        <v>0.08519728961414633</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -1877,19 +1877,19 @@
         <v>3571</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1145</v>
+        <v>1151</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9498</v>
+        <v>10832</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0371008987674688</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01189340148672352</v>
+        <v>0.0119607613856496</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09867732610745042</v>
+        <v>0.112541720603895</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -1898,19 +1898,19 @@
         <v>4516</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1141</v>
+        <v>1165</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>10397</v>
+        <v>10047</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02976720231281208</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.007518181505273172</v>
+        <v>0.007679271800275045</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06852856899871194</v>
+        <v>0.06621963111121908</v>
       </c>
     </row>
     <row r="21">
@@ -1930,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5917</v>
+        <v>5864</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03219827639534478</v>
@@ -1939,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1066837963881257</v>
+        <v>0.1057154742516663</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -1951,16 +1951,16 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8270</v>
+        <v>8265</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02511700321477516</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>5.754244523830939e-07</v>
+        <v>5.819348339759505e-07</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08591822086850839</v>
+        <v>0.08586865441645807</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>5</v>
@@ -1969,19 +1969,19 @@
         <v>4203</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1085</v>
+        <v>969</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>10282</v>
+        <v>10252</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02770583535222475</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.007150338589378028</v>
+        <v>0.006387543182312536</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.06776921387107775</v>
+        <v>0.0675741767032613</v>
       </c>
     </row>
     <row r="22">
@@ -1998,19 +1998,19 @@
         <v>52734</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>48034</v>
+        <v>48078</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>54646</v>
+        <v>54641</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.950760799861276</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8660216719057461</v>
+        <v>0.8668215004514629</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9852264296873913</v>
+        <v>0.9851401313090051</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>86</v>
@@ -2019,19 +2019,19 @@
         <v>90262</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>83551</v>
+        <v>83358</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>93932</v>
+        <v>93928</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.937782098017756</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8680572163224795</v>
+        <v>0.8660553183488697</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9759171045488675</v>
+        <v>0.9758743263457709</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>142</v>
@@ -2040,19 +2040,19 @@
         <v>142995</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>136048</v>
+        <v>135785</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>147667</v>
+        <v>148212</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9425269623349631</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8967318081083701</v>
+        <v>0.8950010755534135</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9733176935314982</v>
+        <v>0.9769094102434653</v>
       </c>
     </row>
     <row r="23">
@@ -2157,19 +2157,19 @@
         <v>11346</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>5835</v>
+        <v>5514</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>19505</v>
+        <v>19823</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02669191785804472</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0137274966318743</v>
+        <v>0.0129715126750376</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04588742855212718</v>
+        <v>0.04663415910193302</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>10</v>
@@ -2178,19 +2178,19 @@
         <v>11346</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>5421</v>
+        <v>5161</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>21143</v>
+        <v>19807</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02646497986294431</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0126453626447117</v>
+        <v>0.01203849752547291</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04931647012375318</v>
+        <v>0.04619978220064644</v>
       </c>
     </row>
     <row r="25">
@@ -2220,19 +2220,19 @@
         <v>11340</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5915</v>
+        <v>6030</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>19107</v>
+        <v>19571</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02667803645077088</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01391501568846477</v>
+        <v>0.01418478874635299</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04494934673197815</v>
+        <v>0.04604233913109852</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>11</v>
@@ -2241,19 +2241,19 @@
         <v>11340</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5718</v>
+        <v>6079</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>19685</v>
+        <v>19580</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02645121647711624</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01333721303324478</v>
+        <v>0.01418069548130749</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04591703305507117</v>
+        <v>0.04567039083629509</v>
       </c>
     </row>
     <row r="26">
@@ -2283,19 +2283,19 @@
         <v>402384</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>390517</v>
+        <v>392032</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>409997</v>
+        <v>411133</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9466300456911844</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9187121811646525</v>
+        <v>0.922276687649943</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9645400854271653</v>
+        <v>0.9672116921698477</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>395</v>
@@ -2304,19 +2304,19 @@
         <v>406029</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>394708</v>
+        <v>394906</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>414693</v>
+        <v>413857</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9470838036599395</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9206762001426261</v>
+        <v>0.9211388435450981</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9672938201664911</v>
+        <v>0.9653436607603736</v>
       </c>
     </row>
     <row r="27">
@@ -2408,19 +2408,19 @@
         <v>7245</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2786</v>
+        <v>2999</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>15095</v>
+        <v>14125</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0144444062312586</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.005554426135330236</v>
+        <v>0.005979538749263459</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03009569893185672</v>
+        <v>0.02816313209695446</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>17</v>
@@ -2429,19 +2429,19 @@
         <v>19124</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>11481</v>
+        <v>11577</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>29687</v>
+        <v>29993</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02825542475754658</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01696330761689787</v>
+        <v>0.0171040510530135</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04386157750209649</v>
+        <v>0.04431244599907519</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>24</v>
@@ -2450,19 +2450,19 @@
         <v>26369</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>17835</v>
+        <v>17262</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>39450</v>
+        <v>39005</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02237714015356714</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01513539917203293</v>
+        <v>0.01464850364380205</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0334780551147236</v>
+        <v>0.03309983069786585</v>
       </c>
     </row>
     <row r="29">
@@ -2479,19 +2479,19 @@
         <v>18903</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>11680</v>
+        <v>12594</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>28711</v>
+        <v>28683</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03768891926551905</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02328723848902743</v>
+        <v>0.02510953043444674</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05724438939303451</v>
+        <v>0.05718817622490008</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>18</v>
@@ -2500,19 +2500,19 @@
         <v>17765</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>10686</v>
+        <v>10771</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>27338</v>
+        <v>27269</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02624715923202036</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01578745328979385</v>
+        <v>0.01591415225280615</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04039063373303959</v>
+        <v>0.04028819979137103</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>39</v>
@@ -2521,19 +2521,19 @@
         <v>36668</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>26091</v>
+        <v>26635</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>50082</v>
+        <v>50634</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03111703336326734</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02214116595123489</v>
+        <v>0.02260291599188079</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04249999246206563</v>
+        <v>0.0429684194037114</v>
       </c>
     </row>
     <row r="30">
@@ -2550,19 +2550,19 @@
         <v>475403</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>463138</v>
+        <v>463826</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>483806</v>
+        <v>483498</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9478666745032224</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9234113269872268</v>
+        <v>0.9247839434262343</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.964619571140918</v>
+        <v>0.9640049614152584</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>626</v>
@@ -2571,19 +2571,19 @@
         <v>639952</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>626865</v>
+        <v>627579</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>650695</v>
+        <v>650948</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.945497416010433</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9261617831071114</v>
+        <v>0.9272163529897057</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9613690840457205</v>
+        <v>0.9617427551384777</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1120</v>
@@ -2592,19 +2592,19 @@
         <v>1115356</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1098987</v>
+        <v>1099846</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1128655</v>
+        <v>1130228</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9465058264831655</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.932615304504098</v>
+        <v>0.9333440003956521</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9577913416064425</v>
+        <v>0.9591268080511091</v>
       </c>
     </row>
     <row r="31">
@@ -2941,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5551</v>
+        <v>5355</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02378456403225312</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1263865410957944</v>
+        <v>0.1219258990541173</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5260</v>
+        <v>5908</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01509336841885171</v>
@@ -2984,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07599836141600327</v>
+        <v>0.08537027018817997</v>
       </c>
     </row>
     <row r="5">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5819</v>
+        <v>5530</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0434799700497733</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2301038571679725</v>
+        <v>0.2186913772487411</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5525</v>
+        <v>5633</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01588815857440026</v>
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07982791609029452</v>
+        <v>0.08139619031978526</v>
       </c>
     </row>
     <row r="6">
@@ -3064,7 +3064,7 @@
         <v>42873</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>38367</v>
+        <v>38563</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>43918</v>
@@ -3073,7 +3073,7 @@
         <v>0.9762154359677468</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8736134589042058</v>
+        <v>0.8780741009458828</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -3085,7 +3085,7 @@
         <v>24189</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>19470</v>
+        <v>19759</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>25289</v>
@@ -3094,7 +3094,7 @@
         <v>0.9565200299502267</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7698961428320276</v>
+        <v>0.781308622751258</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>1</v>
@@ -3106,7 +3106,7 @@
         <v>67063</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>61594</v>
+        <v>61713</v>
       </c>
       <c r="T6" s="5" t="n">
         <v>69207</v>
@@ -3115,7 +3115,7 @@
         <v>0.969018473006748</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8899981420886904</v>
+        <v>0.8917103320909079</v>
       </c>
       <c r="W6" s="6" t="n">
         <v>1</v>
@@ -3213,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5741</v>
+        <v>5749</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01907638123193203</v>
@@ -3222,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09468977294278548</v>
+        <v>0.09482794677000815</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5352</v>
+        <v>5389</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05796467111718722</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2831433272509084</v>
+        <v>0.2850968805133176</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>7283</v>
+        <v>7854</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02831865212410949</v>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09157570035290759</v>
+        <v>0.09874906689851412</v>
       </c>
     </row>
     <row r="9">
@@ -3281,19 +3281,19 @@
         <v>4367</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11207</v>
+        <v>13085</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07202149443500365</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01709743147317877</v>
+        <v>0.01702020508795294</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1848491631849473</v>
+        <v>0.2158195759034217</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5634</v>
+        <v>5812</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05888893275096339</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.298069881508649</v>
+        <v>0.3074551670108447</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -3323,19 +3323,19 @@
         <v>5480</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1123</v>
+        <v>1965</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>13606</v>
+        <v>15985</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06890038283687831</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01412194995590908</v>
+        <v>0.02470856302244072</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1710788557249089</v>
+        <v>0.2009921208071166</v>
       </c>
     </row>
     <row r="10">
@@ -3352,19 +3352,19 @@
         <v>55107</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>47438</v>
+        <v>46292</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>59453</v>
+        <v>59400</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9089021243330643</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7824183226310819</v>
+        <v>0.7635196710847657</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9805909959048041</v>
+        <v>0.9797059931746049</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -3373,7 +3373,7 @@
         <v>16693</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11990</v>
+        <v>12078</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>18902</v>
@@ -3382,7 +3382,7 @@
         <v>0.8831463961318494</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6343359911177578</v>
+        <v>0.6389828669818506</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -3394,19 +3394,19 @@
         <v>71799</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>62647</v>
+        <v>62762</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>76449</v>
+        <v>76327</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9027809650390122</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7877042482905414</v>
+        <v>0.7891480150103534</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9612435644268762</v>
+        <v>0.9597113180395678</v>
       </c>
     </row>
     <row r="11">
@@ -3501,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5172</v>
+        <v>5143</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.008425528286654587</v>
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04358836900263358</v>
+        <v>0.04334298995213944</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -3522,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5193</v>
+        <v>5364</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01839827504680094</v>
@@ -3531,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09507885762624618</v>
+        <v>0.09821362883999801</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>6129</v>
+        <v>6168</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0115689640629835</v>
@@ -3552,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03537204870478951</v>
+        <v>0.03559534080993695</v>
       </c>
     </row>
     <row r="13">
@@ -3569,19 +3569,19 @@
         <v>4376</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1017</v>
+        <v>998</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13948</v>
+        <v>13265</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03688172272061917</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008571518596563566</v>
+        <v>0.008410986042240286</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1175528622019007</v>
+        <v>0.1117967514303823</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -3603,19 +3603,19 @@
         <v>4376</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13841</v>
+        <v>14007</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02525650757368049</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005855392440531186</v>
+        <v>0.005880986775117869</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07988292568466719</v>
+        <v>0.08083948159860753</v>
       </c>
     </row>
     <row r="14">
@@ -3632,19 +3632,19 @@
         <v>113277</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>104312</v>
+        <v>104548</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>117290</v>
+        <v>117502</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9546927489927263</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8791338630870578</v>
+        <v>0.8811248312269415</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9885118469675485</v>
+        <v>0.9903013636364815</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>51</v>
@@ -3653,7 +3653,7 @@
         <v>53610</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>49422</v>
+        <v>49251</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>54615</v>
@@ -3662,7 +3662,7 @@
         <v>0.9816017249531991</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9049211423737538</v>
+        <v>0.9017863711600033</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -3674,19 +3674,19 @@
         <v>166887</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>157612</v>
+        <v>157054</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>171168</v>
+        <v>171149</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9631745283633361</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9096451320889113</v>
+        <v>0.9064218075088271</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9878784163749204</v>
+        <v>0.9877729401261495</v>
       </c>
     </row>
     <row r="15">
@@ -3778,19 +3778,19 @@
         <v>9800</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4565</v>
+        <v>5226</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17175</v>
+        <v>18323</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04228799753862157</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01969705975831063</v>
+        <v>0.02254815901136518</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07410954879027852</v>
+        <v>0.07906128925137362</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6912</v>
+        <v>7763</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03678868037366338</v>
@@ -3811,7 +3811,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1150186317033943</v>
+        <v>0.1291810615566541</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -3820,19 +3820,19 @@
         <v>12011</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6344</v>
+        <v>6328</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21173</v>
+        <v>20884</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0411556183418206</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02173897807806743</v>
+        <v>0.02168321297783824</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07254806068858974</v>
+        <v>0.07155711240205984</v>
       </c>
     </row>
     <row r="17">
@@ -3849,19 +3849,19 @@
         <v>20200</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12557</v>
+        <v>11868</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>31908</v>
+        <v>30645</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0871624999277661</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05418446420162242</v>
+        <v>0.05120897369828388</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.13768231398659</v>
+        <v>0.1322334009662517</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5418</v>
+        <v>6092</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01844729060118536</v>
@@ -3882,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09015103445243534</v>
+        <v>0.101373651486884</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>18</v>
@@ -3891,19 +3891,19 @@
         <v>21309</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>12829</v>
+        <v>12957</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>32833</v>
+        <v>32795</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07301316625393069</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04395928319167824</v>
+        <v>0.04439489310000034</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1125016883003352</v>
+        <v>0.1123700145551185</v>
       </c>
     </row>
     <row r="18">
@@ -3920,19 +3920,19 @@
         <v>201752</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>189731</v>
+        <v>190383</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>211227</v>
+        <v>211716</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8705495025336123</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8186759779504408</v>
+        <v>0.8214902752734703</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9114324733434721</v>
+        <v>0.9135408886061906</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>54</v>
@@ -3941,19 +3941,19 @@
         <v>56776</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>51810</v>
+        <v>52093</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>59013</v>
+        <v>60095</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9447640290251512</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8621364605206444</v>
+        <v>0.8668472816753612</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9819965570140149</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>243</v>
@@ -3962,19 +3962,19 @@
         <v>258528</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>245423</v>
+        <v>245822</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>269298</v>
+        <v>269968</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8858312154042487</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.84092844163583</v>
+        <v>0.842294835566649</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9227342522898911</v>
+        <v>0.9250299291286375</v>
       </c>
     </row>
     <row r="19">
@@ -4066,19 +4066,19 @@
         <v>6208</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2092</v>
+        <v>2134</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11845</v>
+        <v>12182</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06044960276411632</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02037382748554209</v>
+        <v>0.02078040309354334</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1153385396459324</v>
+        <v>0.1186225045532913</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>10</v>
@@ -4087,19 +4087,19 @@
         <v>11245</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5451</v>
+        <v>5642</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>20331</v>
+        <v>19718</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0596891317476196</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02893135587655564</v>
+        <v>0.02994907995624637</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1079129572189759</v>
+        <v>0.1046597505842337</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>16</v>
@@ -4108,19 +4108,19 @@
         <v>17453</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10814</v>
+        <v>10586</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>27923</v>
+        <v>27306</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05995741819503671</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03714789475719619</v>
+        <v>0.03636573915547779</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09592284312312674</v>
+        <v>0.09380510964369844</v>
       </c>
     </row>
     <row r="21">
@@ -4137,19 +4137,19 @@
         <v>7519</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3217</v>
+        <v>3189</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>14023</v>
+        <v>15050</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.07321656483877603</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03132493001152025</v>
+        <v>0.03105699935095558</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1365462315219106</v>
+        <v>0.1465530874136067</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>19</v>
@@ -4158,19 +4158,19 @@
         <v>20344</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>12853</v>
+        <v>13244</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>30090</v>
+        <v>31011</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1079818205497571</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06822423233696993</v>
+        <v>0.07029735979266061</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1597139631226218</v>
+        <v>0.1646014493962824</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>26</v>
@@ -4179,19 +4179,19 @@
         <v>27863</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>18749</v>
+        <v>19131</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>38878</v>
+        <v>39941</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.09571699158728907</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06440749277633219</v>
+        <v>0.06572138495079792</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1335586203542327</v>
+        <v>0.1372099859094644</v>
       </c>
     </row>
     <row r="22">
@@ -4208,19 +4208,19 @@
         <v>88969</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>81462</v>
+        <v>80443</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>95040</v>
+        <v>94466</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8663338323971076</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7932302349912145</v>
+        <v>0.7833136097965001</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9254489527960056</v>
+        <v>0.9198560427089729</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>148</v>
@@ -4229,19 +4229,19 @@
         <v>156811</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>144997</v>
+        <v>143627</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>166184</v>
+        <v>165934</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8323290477026233</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7696237319280275</v>
+        <v>0.7623504347651182</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8820805715213148</v>
+        <v>0.8807550027216408</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>231</v>
@@ -4250,19 +4250,19 @@
         <v>245780</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>230876</v>
+        <v>232651</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>256523</v>
+        <v>258054</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8443255902176742</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7931266270131216</v>
+        <v>0.799225033785078</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.881233118964396</v>
+        <v>0.8864915206435041</v>
       </c>
     </row>
     <row r="23">
@@ -4367,19 +4367,19 @@
         <v>15838</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>9280</v>
+        <v>8405</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>26728</v>
+        <v>25482</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04012714544745636</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02351184931445267</v>
+        <v>0.02129375424513239</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06771674434186603</v>
+        <v>0.06456067931987594</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>14</v>
@@ -4388,19 +4388,19 @@
         <v>15838</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>9610</v>
+        <v>8555</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>25952</v>
+        <v>25721</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03992607834289789</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02422610338769509</v>
+        <v>0.02156532738602667</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06542171467842146</v>
+        <v>0.0648380859092275</v>
       </c>
     </row>
     <row r="25">
@@ -4430,19 +4430,19 @@
         <v>22194</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>14468</v>
+        <v>14391</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>32677</v>
+        <v>33113</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05622923918684154</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03665607183417735</v>
+        <v>0.03646006418575209</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08278807697553883</v>
+        <v>0.08389359509107068</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>21</v>
@@ -4451,19 +4451,19 @@
         <v>22194</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>14690</v>
+        <v>14479</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>33343</v>
+        <v>33169</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05594748851186197</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03703023743126175</v>
+        <v>0.03649839724893874</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08405293436625362</v>
+        <v>0.08361354311082857</v>
       </c>
     </row>
     <row r="26">
@@ -4493,19 +4493,19 @@
         <v>356672</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>342831</v>
+        <v>343805</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>367370</v>
+        <v>366989</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9036436153657021</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8685785767830392</v>
+        <v>0.871044559134488</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9307491303695419</v>
+        <v>0.9297839183917211</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>335</v>
@@ -4514,19 +4514,19 @@
         <v>358660</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>345654</v>
+        <v>344844</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>370051</v>
+        <v>368905</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9041264331452401</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8713407865228705</v>
+        <v>0.8692988790705563</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9328433071038033</v>
+        <v>0.9299534230823735</v>
       </c>
     </row>
     <row r="27">
@@ -4618,19 +4618,19 @@
         <v>19209</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>11564</v>
+        <v>11868</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>30076</v>
+        <v>28999</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03432430949097351</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02066403025955053</v>
+        <v>0.02120735158087489</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05374149188419765</v>
+        <v>0.0518171831798356</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>28</v>
@@ -4639,19 +4639,19 @@
         <v>31395</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>21781</v>
+        <v>21079</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>45993</v>
+        <v>45194</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04231112899413435</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02935445105834572</v>
+        <v>0.02840800202687051</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06198510385671837</v>
+        <v>0.06090768039349154</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>46</v>
@@ -4660,19 +4660,19 @@
         <v>50604</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>37627</v>
+        <v>37076</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>66066</v>
+        <v>67293</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03887722017924589</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02890699503953481</v>
+        <v>0.02848416513492471</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05075551357893519</v>
+        <v>0.05169878708834405</v>
       </c>
     </row>
     <row r="29">
@@ -4689,19 +4689,19 @@
         <v>36462</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>25069</v>
+        <v>25287</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>51609</v>
+        <v>52936</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06515289036778553</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04479538335827665</v>
+        <v>0.04518507511609017</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09221930553812853</v>
+        <v>0.0945903448280994</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>43</v>
@@ -4710,19 +4710,19 @@
         <v>45859</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>33283</v>
+        <v>34199</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>59233</v>
+        <v>61458</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06180414699943595</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0448555795159673</v>
+        <v>0.04609027788586773</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07982829516295051</v>
+        <v>0.0828271874698141</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>73</v>
@@ -4731,19 +4731,19 @@
         <v>82321</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>65325</v>
+        <v>64534</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>102897</v>
+        <v>104351</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06324392905120561</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05018640947925584</v>
+        <v>0.04957887758633224</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07905154765689763</v>
+        <v>0.08016899387301109</v>
       </c>
     </row>
     <row r="30">
@@ -4760,19 +4760,19 @@
         <v>503966</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>487114</v>
+        <v>486612</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>517171</v>
+        <v>517510</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.900522800141241</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8704107597377291</v>
+        <v>0.8695131017917431</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.924119026237864</v>
+        <v>0.9247236303104305</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>622</v>
@@ -4781,19 +4781,19 @@
         <v>664751</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>646239</v>
+        <v>647466</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>681112</v>
+        <v>679982</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.8958847240064297</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.870935909018693</v>
+        <v>0.8725891662467938</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9179341503855306</v>
+        <v>0.9164118648183531</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1078</v>
@@ -4802,19 +4802,19 @@
         <v>1168717</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1144536</v>
+        <v>1144226</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1190596</v>
+        <v>1191897</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.8978788507695485</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8793020606247657</v>
+        <v>0.879063648703904</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9146874439182131</v>
+        <v>0.9156874604866012</v>
       </c>
     </row>
     <row r="31">
@@ -5151,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5001</v>
+        <v>6190</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01530232350371124</v>
@@ -5160,7 +5160,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07284689731050713</v>
+        <v>0.09017594584683615</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -5172,7 +5172,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6966</v>
+        <v>6476</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03729599306543466</v>
@@ -5181,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1888309395310173</v>
+        <v>0.1755555548761533</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -5193,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9131</v>
+        <v>8606</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02298988657116839</v>
@@ -5202,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08651691630117572</v>
+        <v>0.08155022913864203</v>
       </c>
     </row>
     <row r="5">
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4377</v>
+        <v>4235</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01264942295148332</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06376079093474005</v>
+        <v>0.06169834030959055</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -5256,7 +5256,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>4794</v>
+        <v>5452</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.008228003577441943</v>
@@ -5265,7 +5265,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04542978696052855</v>
+        <v>0.05166144065686453</v>
       </c>
     </row>
     <row r="6">
@@ -5282,7 +5282,7 @@
         <v>66728</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>62210</v>
+        <v>62527</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>68647</v>
@@ -5291,7 +5291,7 @@
         <v>0.9720482535448054</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9062313052149736</v>
+        <v>0.9108513257127299</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -5303,7 +5303,7 @@
         <v>35512</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>29922</v>
+        <v>30412</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>36888</v>
@@ -5312,7 +5312,7 @@
         <v>0.9627040069345654</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8111690604689827</v>
+        <v>0.8244444451238445</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>1</v>
@@ -5324,19 +5324,19 @@
         <v>102240</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>95612</v>
+        <v>95642</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>104661</v>
+        <v>104652</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9687821098513897</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9059723207564619</v>
+        <v>0.9062580828264696</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9917185158822532</v>
+        <v>0.9916314397847785</v>
       </c>
     </row>
     <row r="7">
@@ -5478,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5247</v>
+        <v>4551</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01627822335576105</v>
@@ -5487,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0983632920211821</v>
+        <v>0.08531598534346299</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -5499,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5638</v>
+        <v>5618</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0717301419486993</v>
@@ -5508,7 +5508,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.320543428582608</v>
+        <v>0.3194465677654527</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2</v>
@@ -5520,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>6729</v>
+        <v>7807</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03002795640943709</v>
@@ -5529,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09486537346689798</v>
+        <v>0.1100691232530987</v>
       </c>
     </row>
     <row r="10">
@@ -5546,7 +5546,7 @@
         <v>52476</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>48097</v>
+        <v>48793</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>53344</v>
@@ -5555,7 +5555,7 @@
         <v>0.983721776644239</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9016367079788179</v>
+        <v>0.9146840146565367</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -5567,7 +5567,7 @@
         <v>16326</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11950</v>
+        <v>11970</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>17588</v>
@@ -5576,7 +5576,7 @@
         <v>0.9282698580513007</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6794565714173921</v>
+        <v>0.680553432234547</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -5588,7 +5588,7 @@
         <v>68802</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>64203</v>
+        <v>63125</v>
       </c>
       <c r="T10" s="5" t="n">
         <v>70932</v>
@@ -5597,7 +5597,7 @@
         <v>0.9699720435905629</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9051346265331022</v>
+        <v>0.8899308767468996</v>
       </c>
       <c r="W10" s="6" t="n">
         <v>1</v>
@@ -5742,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7003</v>
+        <v>7237</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01699977080095058</v>
@@ -5751,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05823179239112714</v>
+        <v>0.0601756719976842</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -5760,19 +5760,19 @@
         <v>3794</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1147</v>
+        <v>1213</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9453</v>
+        <v>9776</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08210275471704219</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02482251245225123</v>
+        <v>0.02625804066352354</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2045696268139667</v>
+        <v>0.2115632157204436</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5</v>
@@ -5781,19 +5781,19 @@
         <v>5838</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2018</v>
+        <v>2106</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13084</v>
+        <v>12778</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03507111099856451</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01212477575423444</v>
+        <v>0.01265301835771435</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07859416455789651</v>
+        <v>0.07676119775923636</v>
       </c>
     </row>
     <row r="14">
@@ -5810,7 +5810,7 @@
         <v>118217</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>113258</v>
+        <v>113024</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>120261</v>
@@ -5819,7 +5819,7 @@
         <v>0.9830002291990494</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9417682076088727</v>
+        <v>0.9398243280023159</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -5831,19 +5831,19 @@
         <v>42415</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>36756</v>
+        <v>36433</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>45062</v>
+        <v>44996</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9178972452829578</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7954303731860333</v>
+        <v>0.7884367842795553</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9751774875477488</v>
+        <v>0.9737419593364763</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>160</v>
@@ -5852,19 +5852,19 @@
         <v>160632</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>153386</v>
+        <v>153692</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>164452</v>
+        <v>164364</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9649288890014355</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9214058354421036</v>
+        <v>0.9232388022407635</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9878752242457656</v>
+        <v>0.9873469816422856</v>
       </c>
     </row>
     <row r="15">
@@ -5956,19 +5956,19 @@
         <v>5021</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1810</v>
+        <v>1658</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10389</v>
+        <v>10428</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02462917464510115</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008880726959631253</v>
+        <v>0.008134378425211298</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05096317907532907</v>
+        <v>0.05115310849918978</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -5990,19 +5990,19 @@
         <v>5021</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1810</v>
+        <v>1768</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11102</v>
+        <v>10196</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01657566883682502</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005974376219920307</v>
+        <v>0.005838189692813516</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03665329189025752</v>
+        <v>0.03366139772872206</v>
       </c>
     </row>
     <row r="17">
@@ -6022,7 +6022,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5575</v>
+        <v>4135</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.004050490906205739</v>
@@ -6031,7 +6031,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02734642159635686</v>
+        <v>0.02028160771198934</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -6040,19 +6040,19 @@
         <v>6049</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2282</v>
+        <v>2173</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13416</v>
+        <v>13008</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06107521557247465</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.023037140264551</v>
+        <v>0.0219433732996256</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1354473644551156</v>
+        <v>0.1313364821291732</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -6061,19 +6061,19 @@
         <v>6875</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2616</v>
+        <v>2512</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>14031</v>
+        <v>14646</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02269703338815165</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.008636623745111659</v>
+        <v>0.008292164205598838</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04632055588448742</v>
+        <v>0.04835281718620984</v>
       </c>
     </row>
     <row r="18">
@@ -6090,19 +6090,19 @@
         <v>198009</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>192237</v>
+        <v>192514</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>201400</v>
+        <v>201424</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9713203344486931</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9430032538982317</v>
+        <v>0.9443642703238651</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9879536324164967</v>
+        <v>0.9880679682752481</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>79</v>
@@ -6111,19 +6111,19 @@
         <v>92997</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>85630</v>
+        <v>86038</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>96764</v>
+        <v>96873</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9389247844275254</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8645526355448835</v>
+        <v>0.8686635178708269</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9769628597354489</v>
+        <v>0.9780566267003744</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>290</v>
@@ -6132,19 +6132,19 @@
         <v>291006</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>282807</v>
+        <v>283366</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>296786</v>
+        <v>296809</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9607272977750233</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9336595666530908</v>
+        <v>0.9355045987341185</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9798093325872965</v>
+        <v>0.9798830881388308</v>
       </c>
     </row>
     <row r="19">
@@ -6236,19 +6236,19 @@
         <v>4307</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1606</v>
+        <v>1614</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8706</v>
+        <v>9566</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02965786516895868</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01105829807595213</v>
+        <v>0.01111211737575972</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05994948033554067</v>
+        <v>0.06587440168081864</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -6260,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7739</v>
+        <v>6785</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.008442735325471316</v>
@@ -6269,7 +6269,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04850817479937208</v>
+        <v>0.04252844347370387</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -6278,19 +6278,19 @@
         <v>5654</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2162</v>
+        <v>2052</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11782</v>
+        <v>11374</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01855156243623132</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.007092960303570628</v>
+        <v>0.006731786018780068</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03865912067278287</v>
+        <v>0.03731935407537498</v>
       </c>
     </row>
     <row r="21">
@@ -6307,19 +6307,19 @@
         <v>8581</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4316</v>
+        <v>4263</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>15438</v>
+        <v>15193</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.05908633556018619</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02971879324794196</v>
+        <v>0.02935495951477593</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1063041620452057</v>
+        <v>0.1046183242367641</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>11</v>
@@ -6328,19 +6328,19 @@
         <v>12854</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>6601</v>
+        <v>6193</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>21147</v>
+        <v>21501</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08056282612508789</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04137473060846486</v>
+        <v>0.03881288717218558</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1325419085639841</v>
+        <v>0.1347633261775521</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>21</v>
@@ -6349,19 +6349,19 @@
         <v>21434</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>13239</v>
+        <v>13477</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>31169</v>
+        <v>32259</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.07032946287592984</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04343987719404584</v>
+        <v>0.04421976818322833</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1022690180851528</v>
+        <v>0.1058465909450235</v>
       </c>
     </row>
     <row r="22">
@@ -6378,19 +6378,19 @@
         <v>132333</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>125210</v>
+        <v>124468</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>137748</v>
+        <v>137866</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9112557992708551</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8622048348529607</v>
+        <v>0.8570943937267088</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9485408126911471</v>
+        <v>0.9493519931927661</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>127</v>
@@ -6399,19 +6399,19 @@
         <v>145349</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>136359</v>
+        <v>137293</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>152071</v>
+        <v>152461</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9109944385494408</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8546487808116888</v>
+        <v>0.8604994356988427</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9531215599806652</v>
+        <v>0.9555715779400679</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>271</v>
@@ -6420,19 +6420,19 @@
         <v>277683</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>265073</v>
+        <v>266581</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>286298</v>
+        <v>287198</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9111189746878389</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8697441376557185</v>
+        <v>0.874693855028264</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.939386258546007</v>
+        <v>0.9423409679766122</v>
       </c>
     </row>
     <row r="23">
@@ -6533,19 +6533,19 @@
         <v>12746</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>6391</v>
+        <v>5970</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>22012</v>
+        <v>23042</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03085472878418969</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01547025965491061</v>
+        <v>0.01445136551797467</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05328694913356125</v>
+        <v>0.05578074976879076</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>10</v>
@@ -6554,19 +6554,19 @@
         <v>12746</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>6391</v>
+        <v>5970</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>22012</v>
+        <v>23042</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03085472878418969</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01547025965491061</v>
+        <v>0.01445136551797467</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05328694913356125</v>
+        <v>0.05578074976879076</v>
       </c>
     </row>
     <row r="25">
@@ -6592,19 +6592,19 @@
         <v>16305</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9526</v>
+        <v>9049</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>26608</v>
+        <v>26945</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03947225257836699</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02306039621074577</v>
+        <v>0.02190533120212189</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06441382472267793</v>
+        <v>0.06522948333079132</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>13</v>
@@ -6613,19 +6613,19 @@
         <v>16305</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>9526</v>
+        <v>9049</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>26608</v>
+        <v>26945</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03947225257836699</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02306039621074577</v>
+        <v>0.02190533120212189</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06441382472267793</v>
+        <v>0.06522948333079132</v>
       </c>
     </row>
     <row r="26">
@@ -6651,19 +6651,19 @@
         <v>384032</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>371524</v>
+        <v>370757</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>394411</v>
+        <v>393804</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9296730186374433</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8993932856923328</v>
+        <v>0.8975365416715065</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.954797509992346</v>
+        <v>0.9533295392533657</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>324</v>
@@ -6672,19 +6672,19 @@
         <v>384032</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>371524</v>
+        <v>370757</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>394411</v>
+        <v>393804</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9296730186374433</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8993932856923328</v>
+        <v>0.8975365416715065</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.954797509992346</v>
+        <v>0.9533295392533657</v>
       </c>
     </row>
     <row r="27">
@@ -6764,19 +6764,19 @@
         <v>10378</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5824</v>
+        <v>5850</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>17789</v>
+        <v>18011</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01755064381698297</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.009849077333354526</v>
+        <v>0.009893586704926913</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03008257111296432</v>
+        <v>0.03045904812380296</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>12</v>
@@ -6785,19 +6785,19 @@
         <v>15468</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>8719</v>
+        <v>8009</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>26291</v>
+        <v>26072</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02002731535679358</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01128874313856061</v>
+        <v>0.01036911284494389</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03403967436726363</v>
+        <v>0.0337555059904189</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>24</v>
@@ -6806,19 +6806,19 @@
         <v>25847</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>16944</v>
+        <v>16521</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>38491</v>
+        <v>38870</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01895337398231321</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01242503011807956</v>
+        <v>0.01211525315461179</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0282254202146108</v>
+        <v>0.02850371268310654</v>
       </c>
     </row>
     <row r="29">
@@ -6835,19 +6835,19 @@
         <v>13187</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7507</v>
+        <v>7404</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>21499</v>
+        <v>21889</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02230127587811727</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01269450570747232</v>
+        <v>0.01252120407037397</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03635746923199851</v>
+        <v>0.03701641884682792</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>33</v>
@@ -6856,19 +6856,19 @@
         <v>40264</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>28950</v>
+        <v>27332</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>56132</v>
+        <v>54239</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05213065560579908</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03748184203369796</v>
+        <v>0.03538733623708885</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07267521438974762</v>
+        <v>0.07022481635538275</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>48</v>
@@ -6877,19 +6877,19 @@
         <v>53451</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>40994</v>
+        <v>41043</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>71116</v>
+        <v>71607</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.039195954919937</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03006096362311133</v>
+        <v>0.03009666176729882</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05214996794625379</v>
+        <v>0.05250971501885535</v>
       </c>
     </row>
     <row r="30">
@@ -6906,19 +6906,19 @@
         <v>567762</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>557694</v>
+        <v>557263</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>575677</v>
+        <v>575894</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9601480803048997</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9431215933020659</v>
+        <v>0.9423929606218509</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9735331946280621</v>
+        <v>0.9738996230023994</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>605</v>
@@ -6927,19 +6927,19 @@
         <v>716632</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>698603</v>
+        <v>699636</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>730823</v>
+        <v>732257</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9278420290374073</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9045001330795658</v>
+        <v>0.9058375751009776</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9462158622659529</v>
+        <v>0.9480719032408707</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1205</v>
@@ -6948,19 +6948,19 @@
         <v>1284394</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1265985</v>
+        <v>1263734</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1300456</v>
+        <v>1300235</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9418506710977498</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9283513197914983</v>
+        <v>0.9267004103463189</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9536286802926122</v>
+        <v>0.9534671190459886</v>
       </c>
     </row>
     <row r="31">
@@ -7297,7 +7297,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3138</v>
+        <v>3046</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005085039488779474</v>
@@ -7306,7 +7306,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02606581157882127</v>
+        <v>0.02529472386797507</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>3056</v>
+        <v>3107</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003140356705412812</v>
@@ -7340,7 +7340,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01567529937663969</v>
+        <v>0.01593737570033809</v>
       </c>
     </row>
     <row r="5">
@@ -7373,7 +7373,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>2995</v>
+        <v>3938</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.008758678864847437</v>
@@ -7382,7 +7382,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0401665660405472</v>
+        <v>0.05282349335018166</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -7394,7 +7394,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>3285</v>
+        <v>3643</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.003349600731929526</v>
@@ -7403,7 +7403,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01684897565863452</v>
+        <v>0.01868639088608656</v>
       </c>
     </row>
     <row r="6">
@@ -7420,7 +7420,7 @@
         <v>119789</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>117263</v>
+        <v>117355</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>120401</v>
@@ -7429,7 +7429,7 @@
         <v>0.9949149605112205</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9739341884211787</v>
+        <v>0.9747052761320251</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -7441,7 +7441,7 @@
         <v>73906</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>71564</v>
+        <v>70621</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>74559</v>
@@ -7450,7 +7450,7 @@
         <v>0.9912413211351526</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9598334339594533</v>
+        <v>0.9471765066498183</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>1</v>
@@ -7462,7 +7462,7 @@
         <v>193695</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>190435</v>
+        <v>190538</v>
       </c>
       <c r="T6" s="5" t="n">
         <v>194960</v>
@@ -7471,7 +7471,7 @@
         <v>0.9935100425626577</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9767877684162246</v>
+        <v>0.9773162232781677</v>
       </c>
       <c r="W6" s="6" t="n">
         <v>1</v>
@@ -7569,7 +7569,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6259</v>
+        <v>5938</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.008805558471569228</v>
@@ -7578,7 +7578,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05977104719268664</v>
+        <v>0.05670464428660608</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -7590,7 +7590,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3389</v>
+        <v>3382</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01767985806605226</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06119371451780651</v>
+        <v>0.06106045885241581</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -7608,19 +7608,19 @@
         <v>1901</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>6094</v>
+        <v>6351</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01187552234289217</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.002537394652039668</v>
+        <v>0.002581783955801898</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03806381080063116</v>
+        <v>0.03967185509841223</v>
       </c>
     </row>
     <row r="9">
@@ -7640,7 +7640,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4023</v>
+        <v>3381</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01035956746768786</v>
@@ -7649,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.038414101047182</v>
+        <v>0.03229098967554411</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -7661,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>3336</v>
+        <v>3236</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0118582245605322</v>
@@ -7670,7 +7670,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06023016944185627</v>
+        <v>0.05843503274155969</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3</v>
@@ -7679,19 +7679,19 @@
         <v>1742</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>4780</v>
+        <v>4826</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.01087801098895394</v>
+        <v>0.01087801098895395</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.003016689900890691</v>
+        <v>0.002986348179867069</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0298556128959788</v>
+        <v>0.03014184497802261</v>
       </c>
     </row>
     <row r="10">
@@ -7708,19 +7708,19 @@
         <v>102708</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>99038</v>
+        <v>98955</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>104229</v>
+        <v>104233</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9808348740607429</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9457871827298742</v>
+        <v>0.9449896360692775</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9953634858894325</v>
+        <v>0.9953968745012538</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>95</v>
@@ -7729,19 +7729,19 @@
         <v>53749</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>50647</v>
+        <v>50837</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>54984</v>
+        <v>54988</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9704619173734155</v>
+        <v>0.9704619173734156</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9144518275575105</v>
+        <v>0.9178812150737758</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9927671100947809</v>
+        <v>0.9928269839733139</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>239</v>
@@ -7750,19 +7750,19 @@
         <v>156457</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>152330</v>
+        <v>152419</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>158791</v>
+        <v>158723</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9772464666681537</v>
+        <v>0.977246466668154</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9514656200845115</v>
+        <v>0.9520223776220303</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9918215557833423</v>
+        <v>0.9914005833453911</v>
       </c>
     </row>
     <row r="11">
@@ -7857,7 +7857,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2719</v>
+        <v>2880</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.004242500090562728</v>
@@ -7866,7 +7866,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02417768391695562</v>
+        <v>0.02560664992990772</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -7878,7 +7878,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>4325</v>
+        <v>3910</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01372158297792361</v>
@@ -7887,7 +7887,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07460342433330724</v>
+        <v>0.0674521608203715</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -7899,16 +7899,16 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>4590</v>
+        <v>4322</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.007466515653398531</v>
+        <v>0.00746651565339853</v>
       </c>
       <c r="V12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02693194552951464</v>
+        <v>0.025356320051886</v>
       </c>
     </row>
     <row r="13">
@@ -7925,19 +7925,19 @@
         <v>2331</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6638</v>
+        <v>6437</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02072737364315001</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004524145905741311</v>
+        <v>0.004454987880409633</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05901620691658298</v>
+        <v>0.05722958232319757</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -7949,16 +7949,16 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3801</v>
+        <v>3598</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.01832535703015627</v>
+        <v>0.01832535703015626</v>
       </c>
       <c r="O13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06557188428200141</v>
+        <v>0.06206344811658857</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -7967,19 +7967,19 @@
         <v>3394</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1374</v>
+        <v>1408</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7469</v>
+        <v>7345</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01991040231433003</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008060874855767198</v>
+        <v>0.008259061454613829</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0438216756263452</v>
+        <v>0.04309164465289662</v>
       </c>
     </row>
     <row r="14">
@@ -7996,19 +7996,19 @@
         <v>109663</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>105641</v>
+        <v>106018</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>111512</v>
+        <v>111636</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9750301262662872</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.939270162073318</v>
+        <v>0.9426266860936092</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.991477359423536</v>
+        <v>0.9925800999957343</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>103</v>
@@ -8017,19 +8017,19 @@
         <v>56112</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>53053</v>
+        <v>52827</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>57546</v>
+        <v>57519</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9679530599919202</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9151734882959781</v>
+        <v>0.9112836964583803</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9926881224116824</v>
+        <v>0.9922150126100542</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>262</v>
@@ -8038,19 +8038,19 @@
         <v>165775</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>161175</v>
+        <v>161231</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>168474</v>
+        <v>168208</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9726230820322715</v>
+        <v>0.9726230820322713</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9456351362450357</v>
+        <v>0.9459623833457558</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9884612766958505</v>
+        <v>0.9868983550124981</v>
       </c>
     </row>
     <row r="15">
@@ -8142,19 +8142,19 @@
         <v>2566</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>915</v>
+        <v>797</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6025</v>
+        <v>5934</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009868306243734042</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003519973299879946</v>
+        <v>0.003064231614155829</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02317159253196641</v>
+        <v>0.02282438412805532</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -8163,19 +8163,19 @@
         <v>2049</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>734</v>
+        <v>671</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4566</v>
+        <v>4569</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01565654740260493</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005610626968894728</v>
+        <v>0.005128720412499251</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03488417331579976</v>
+        <v>0.03490962861896339</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -8184,19 +8184,19 @@
         <v>4615</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2319</v>
+        <v>2272</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8564</v>
+        <v>8498</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01180637756460653</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005931591571962125</v>
+        <v>0.005813684300863892</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02190949100233994</v>
+        <v>0.02174048733453903</v>
       </c>
     </row>
     <row r="17">
@@ -8213,19 +8213,19 @@
         <v>9230</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5030</v>
+        <v>5328</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15557</v>
+        <v>15460</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.03549811670825099</v>
+        <v>0.03549811670825098</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01934490795086304</v>
+        <v>0.02049080326921044</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05983300781264464</v>
+        <v>0.05945872313554991</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -8237,16 +8237,16 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4246</v>
+        <v>3984</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.008656021622220957</v>
+        <v>0.008656021622220955</v>
       </c>
       <c r="O17" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03243836194068022</v>
+        <v>0.03043965539860056</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>16</v>
@@ -8255,19 +8255,19 @@
         <v>10363</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6152</v>
+        <v>5764</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>16585</v>
+        <v>16892</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0265106033599794</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01573780005469821</v>
+        <v>0.01474527886650992</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04243046197285051</v>
+        <v>0.04321466435227955</v>
       </c>
     </row>
     <row r="18">
@@ -8284,19 +8284,19 @@
         <v>248210</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>241596</v>
+        <v>241154</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>252543</v>
+        <v>252473</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.954633577048015</v>
+        <v>0.9546335770480151</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9291923653269067</v>
+        <v>0.9274921443723841</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9712985777626356</v>
+        <v>0.97102833680697</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>252</v>
@@ -8305,19 +8305,19 @@
         <v>127698</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>124604</v>
+        <v>124584</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>129568</v>
+        <v>129685</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9756874309751741</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9520482448701002</v>
+        <v>0.9518923846150347</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.989978795073958</v>
+        <v>0.9908670217001253</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>604</v>
@@ -8326,19 +8326,19 @@
         <v>375908</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>369210</v>
+        <v>368505</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>381376</v>
+        <v>380965</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.9616830190754141</v>
+        <v>0.9616830190754142</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9445459624292805</v>
+        <v>0.9427435899989056</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9756704014322057</v>
+        <v>0.9746184713262562</v>
       </c>
     </row>
     <row r="19">
@@ -8430,19 +8430,19 @@
         <v>1484</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4147</v>
+        <v>4484</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01472676544760801</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.003344205901184256</v>
+        <v>0.003473984207635384</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04114783546764562</v>
+        <v>0.04448682443644722</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>21</v>
@@ -8451,19 +8451,19 @@
         <v>10405</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6514</v>
+        <v>6657</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>15551</v>
+        <v>16023</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.04724518663503432</v>
+        <v>0.04724518663503433</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02957435471230073</v>
+        <v>0.03022390827959111</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07060668830911244</v>
+        <v>0.07274944629921797</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>24</v>
@@ -8472,19 +8472,19 @@
         <v>11890</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>7649</v>
+        <v>7382</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>17331</v>
+        <v>16800</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.03703565128048444</v>
+        <v>0.03703565128048443</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02382550398071018</v>
+        <v>0.02299359102360244</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05398353050502482</v>
+        <v>0.05233083300756634</v>
       </c>
     </row>
     <row r="21">
@@ -8501,19 +8501,19 @@
         <v>1867</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4490</v>
+        <v>4600</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01852681195694263</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.004756521719522562</v>
+        <v>0.004822839520693299</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04454757096669886</v>
+        <v>0.0456383082588571</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>23</v>
@@ -8522,19 +8522,19 @@
         <v>10522</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>6810</v>
+        <v>6835</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>15564</v>
+        <v>15730</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04777412635059234</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03092214002435618</v>
+        <v>0.03103541524060255</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0706675729926026</v>
+        <v>0.07142119913992642</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>27</v>
@@ -8543,19 +8543,19 @@
         <v>12389</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>8315</v>
+        <v>8366</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>18393</v>
+        <v>17514</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.03859159289958148</v>
+        <v>0.03859159289958147</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0258993269761319</v>
+        <v>0.02605831862607403</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05729125473762293</v>
+        <v>0.0545558927561041</v>
       </c>
     </row>
     <row r="22">
@@ -8572,19 +8572,19 @@
         <v>97441</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>94046</v>
+        <v>94127</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>99377</v>
+        <v>99361</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9667464225954493</v>
+        <v>0.9667464225954494</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9330581745804847</v>
+        <v>0.933865024974354</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9859487490538947</v>
+        <v>0.985794788159181</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>399</v>
@@ -8593,19 +8593,19 @@
         <v>199317</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>192128</v>
+        <v>191965</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>204656</v>
+        <v>204618</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.9049806870143734</v>
+        <v>0.9049806870143733</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8723431201538626</v>
+        <v>0.8716029705788881</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9292234646367632</v>
+        <v>0.9290529168323982</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>540</v>
@@ -8614,19 +8614,19 @@
         <v>296758</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>289563</v>
+        <v>290087</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>303204</v>
+        <v>302405</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9243727558199341</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9019612255566295</v>
+        <v>0.9035934467622522</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.944451465152862</v>
+        <v>0.9419631579966243</v>
       </c>
     </row>
     <row r="23">
@@ -8731,19 +8731,19 @@
         <v>11281</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>6275</v>
+        <v>6787</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>17027</v>
+        <v>18158</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03270872541230587</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01819489134129576</v>
+        <v>0.01967952846116511</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04937172644617435</v>
+        <v>0.05265038889127546</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>18</v>
@@ -8752,19 +8752,19 @@
         <v>11281</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>7073</v>
+        <v>6636</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>18730</v>
+        <v>17932</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03240093452732627</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02031695911127153</v>
+        <v>0.01906165789981028</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05379928808840934</v>
+        <v>0.05150510118797134</v>
       </c>
     </row>
     <row r="25">
@@ -8794,19 +8794,19 @@
         <v>27678</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>20510</v>
+        <v>20284</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>35445</v>
+        <v>36436</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08025288097175705</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05946954076352833</v>
+        <v>0.05881547015811548</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1027739567733213</v>
+        <v>0.105648003884783</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>48</v>
@@ -8815,19 +8815,19 @@
         <v>27678</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>20459</v>
+        <v>20637</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>36571</v>
+        <v>36648</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07949769699729477</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05876452113162766</v>
+        <v>0.05927398369792768</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1050411587421858</v>
+        <v>0.105264829406378</v>
       </c>
     </row>
     <row r="26">
@@ -8857,19 +8857,19 @@
         <v>305921</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>296803</v>
+        <v>295569</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>313949</v>
+        <v>314828</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8870383936159372</v>
+        <v>0.8870383936159371</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8606000205845294</v>
+        <v>0.8570230813995009</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9103155913739315</v>
+        <v>0.9128648747858256</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>575</v>
@@ -8878,19 +8878,19 @@
         <v>309197</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>299059</v>
+        <v>299088</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>317280</v>
+        <v>318088</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8881013684753789</v>
+        <v>0.888101368475379</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.85898231402037</v>
+        <v>0.8590657854115256</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9113193911504114</v>
+        <v>0.9136392617015786</v>
       </c>
     </row>
     <row r="27">
@@ -8982,19 +8982,19 @@
         <v>6062</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2923</v>
+        <v>2926</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>10862</v>
+        <v>11151</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.008638988800041623</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.004165163515674333</v>
+        <v>0.004170154077800175</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.015481053608929</v>
+        <v>0.01589255437669639</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>47</v>
@@ -9003,19 +9003,19 @@
         <v>25510</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>18955</v>
+        <v>19363</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>35017</v>
+        <v>34664</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02885993459591034</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02144406576469763</v>
+        <v>0.02190605301437915</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03961553127165155</v>
+        <v>0.03921583852592947</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>58</v>
@@ -9024,19 +9024,19 @@
         <v>31571</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>23525</v>
+        <v>24122</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>40930</v>
+        <v>41469</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01991160816276038</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01483671994357176</v>
+        <v>0.01521349454679009</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02581385644635547</v>
+        <v>0.02615370593176485</v>
       </c>
     </row>
     <row r="29">
@@ -9053,19 +9053,19 @@
         <v>14513</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>9073</v>
+        <v>9328</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>21086</v>
+        <v>22179</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02068391204922077</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01293034633971535</v>
+        <v>0.01329437447152656</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03005199438879084</v>
+        <v>0.03160932422713986</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>77</v>
@@ -9074,19 +9074,19 @@
         <v>41705</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>33023</v>
+        <v>32786</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>52532</v>
+        <v>53049</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04718149203478305</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03736021769357203</v>
+        <v>0.03709211251532318</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0594308898164567</v>
+        <v>0.06001536985480745</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>101</v>
@@ -9095,19 +9095,19 @@
         <v>56218</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>46174</v>
+        <v>46272</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>68751</v>
+        <v>68537</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0354555817933464</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02912143198543082</v>
+        <v>0.0291829625498712</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04336045358130214</v>
+        <v>0.04322513364234676</v>
       </c>
     </row>
     <row r="30">
@@ -9124,19 +9124,19 @@
         <v>681088</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>673744</v>
+        <v>672224</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>687648</v>
+        <v>687164</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.9706770991507379</v>
+        <v>0.9706770991507377</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9602108768153678</v>
+        <v>0.9580438689432693</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9800263789370793</v>
+        <v>0.9793356609335816</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1549</v>
@@ -9145,19 +9145,19 @@
         <v>816703</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>804757</v>
+        <v>802733</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>828124</v>
+        <v>828314</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9239585733693066</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9104436880207752</v>
+        <v>0.908154070657517</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9368794776664811</v>
+        <v>0.937094656408556</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2521</v>
@@ -9166,19 +9166,19 @@
         <v>1497791</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1483828</v>
+        <v>1481103</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1511498</v>
+        <v>1510431</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.9446328100438933</v>
+        <v>0.9446328100438932</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.935826500647829</v>
+        <v>0.9341080957930717</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9532774926832721</v>
+        <v>0.9526050223268434</v>
       </c>
     </row>
     <row r="31">
